--- a/servidor/plantillasVacias/Detalles Horarios.xlsx
+++ b/servidor/plantillasVacias/Detalles Horarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07632A0-4F14-4032-AA80-47090D1079BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A4B31-BEB7-4504-B373-CFD7A7700920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A4A467B-1E2B-4A17-8C92-897AD1B099A6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>orden</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>ACCIONES</t>
-  </si>
-  <si>
-    <t>0:10 (Ingresar de esta forma)</t>
   </si>
   <si>
     <t>Elimar Fila: Horario1</t>
@@ -147,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +157,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
     <col min="3" max="3" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -509,19 +512,19 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="b">
         <v>1</v>
@@ -529,8 +532,8 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
+      <c r="F2" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/servidor/plantillasVacias/Detalles Horarios.xlsx
+++ b/servidor/plantillasVacias/Detalles Horarios.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A4B31-BEB7-4504-B373-CFD7A7700920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7E406-BEB0-4191-9542-61677CEB6EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A4A467B-1E2B-4A17-8C92-897AD1B099A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalles de Horario" sheetId="1" r:id="rId1"/>
-    <sheet name="Selectores" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Selectores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,18 +49,6 @@
     <t>NOCTURNO</t>
   </si>
   <si>
-    <t>1-Entrada</t>
-  </si>
-  <si>
-    <t>2-Salida</t>
-  </si>
-  <si>
-    <t>3-S. Almuerzo</t>
-  </si>
-  <si>
-    <t>4-E. Almuerzo</t>
-  </si>
-  <si>
     <t>ACCIONES</t>
   </si>
   <si>
@@ -74,6 +56,18 @@
   </si>
   <si>
     <t>9:00 (Ingresar de esta forma)</t>
+  </si>
+  <si>
+    <t>E=Entrada</t>
+  </si>
+  <si>
+    <t>S=Salida</t>
+  </si>
+  <si>
+    <t>E/A=E. Almuerzo</t>
+  </si>
+  <si>
+    <t>S/A=S. Almuerzo</t>
   </si>
 </sst>
 </file>
@@ -482,7 +476,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,7 +485,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -518,19 +512,19 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
@@ -587,13 +581,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,17 +611,17 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/servidor/plantillasVacias/Detalles Horarios.xlsx
+++ b/servidor/plantillasVacias/Detalles Horarios.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7E406-BEB0-4191-9542-61677CEB6EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694138B4-53DA-441F-8464-3102BB8A441D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A4A467B-1E2B-4A17-8C92-897AD1B099A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalles de Horario" sheetId="1" r:id="rId1"/>
-    <sheet name="Selectores" sheetId="2" r:id="rId2"/>
+    <sheet name="Selectores" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>orden</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>minutos_espera</t>
-  </si>
-  <si>
-    <t>nocturno</t>
   </si>
   <si>
     <t>nombre_horario</t>
@@ -473,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08EB10D-32A8-49E4-BF92-0A69B2248949}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -484,15 +481,14 @@
     <col min="1" max="1" width="18.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -501,54 +497,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
   </sheetData>
@@ -557,18 +547,12 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ADEFC2DA-3A9D-4881-9EE8-76F8B4990E07}">
-          <x14:formula1>
-            <xm:f>Selectores!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D5222</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5F4074E-F07E-4271-A6F0-635A08B90276}">
           <x14:formula1>
             <xm:f>Selectores!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E4732</xm:sqref>
+          <xm:sqref>D2:D4732</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -592,10 +576,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,17 +595,17 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
